--- a/crono.xlsx
+++ b/crono.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\OneDrive\Documents\JPD\grant_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9193B35-82F5-495D-BF48-BCD871E27300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8DC04D-39DD-4484-83B3-4C04C19B15FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{9D51C0A5-6B98-4918-B801-140705F2FF6C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{9D51C0A5-6B98-4918-B801-140705F2FF6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Objetivo específico</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Concepto</t>
   </si>
   <si>
-    <t>Rubro(s) financiable () al que pertenece</t>
-  </si>
-  <si>
     <t>Rubro(s) financiable(s) al que pertenece</t>
   </si>
   <si>
@@ -121,16 +119,29 @@
   </si>
   <si>
     <t>Incluye registro,hospedaje,alimentación y transporte para 2 personas.</t>
+  </si>
+  <si>
+    <t>Incluye el costo de los datos para el flujo peatonal para las 32 entidades y la ZMVM. Asimismo incluye la construcción de la plataforma, la cual incluirá: gráficas y mapas interactivos, resultados y la aplicación.</t>
+  </si>
+  <si>
+    <t>336</t>
+  </si>
+  <si>
+    <t>116,341</t>
+  </si>
+  <si>
+    <t>405,341</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="174" formatCode="&quot;$&quot;#,##0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -160,7 +171,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -203,8 +214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -223,11 +240,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,16 +286,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -350,6 +438,885 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$12:$D$12</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Viáticos para conferencia</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>$60,000.00</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$E$1:$E$11</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Justificación</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protección resultados</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Requisito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Se utilizirá para montar la plataforma. Una vez finalizado el proyecto se dejará el dominio para que el modelo sea donado al CONACYT para futuros brotes. El servidor servirá para acelerar el proceso de estimación.</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Incluye el costo de los datos para el flujo peatonal para las 32 entidades y la ZMVM. Asimismo incluye la construcción de la plataforma, la cual incluirá: gráficas y mapas interactivos, resultados y la aplicación.</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Se cubrirá el costo por sometimiento, el costo por publicación y otros costos. https://authorservices.wiley.com/author-resources/Journal-Authors/open-access/article-publication-charges.html</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E49-402B-BC0A-E32A6B634516}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="245790416"/>
+        <c:axId val="245791072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="245790416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245791072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="245791072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="245790416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B79E2490-03D8-4DF5-8D74-DAD3F081AFB8}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="131" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8667023" cy="6291832"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD6803C-5614-416E-A844-11F41B7AEFC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -662,7 +1629,7 @@
   <dimension ref="A1:AD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B9"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -681,32 +1648,32 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
@@ -912,14 +1879,6 @@
       <c r="Y6" s="10"/>
       <c r="Z6" s="10"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-    </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="AD14" s="11"/>
     </row>
@@ -951,10 +1910,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E664AADE-F02E-40EC-A4F0-B3E1FA1BA70A}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -962,144 +1921,173 @@
     <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.26953125" customWidth="1"/>
     <col min="3" max="3" width="34.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="28" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C2" s="21">
+        <v>437</v>
+      </c>
+      <c r="D2" s="20">
+        <v>2457.79</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="22">
+        <v>350</v>
+      </c>
+      <c r="D3" s="25">
+        <v>5000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="23">
+        <v>523</v>
+      </c>
+      <c r="D4" s="26">
+        <v>15000</v>
+      </c>
+      <c r="E4" s="35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C2">
-        <v>437</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2457.79</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>350</v>
-      </c>
-      <c r="D3" s="17">
-        <v>5000</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>523</v>
-      </c>
-      <c r="D4" s="17">
-        <v>15000</v>
-      </c>
-      <c r="E4" s="20" t="s">
+      <c r="B5" s="38"/>
+      <c r="C5" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="33">
+        <v>400000</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="34"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+    </row>
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="36"/>
+      <c r="C11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="27">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="19">
-        <v>400000</v>
-      </c>
-      <c r="E5" s="20"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-    </row>
-    <row r="11" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11">
-        <v>116</v>
-      </c>
-      <c r="D11" s="17">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="B12" s="39"/>
+      <c r="C12" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="30">
+        <v>60000</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C12">
-        <v>336</v>
-      </c>
-      <c r="D12" s="17">
-        <v>60000</v>
-      </c>
-      <c r="E12" t="s">
-        <v>28</v>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="27">
+        <f>+SUM(D2:D12)</f>
+        <v>502457.79</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A5:A10"/>
     <mergeCell ref="D5:D10"/>
+    <mergeCell ref="C5:C10"/>
+    <mergeCell ref="E5:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
